--- a/iddd_identityaccess/java_test_list..xlsx
+++ b/iddd_identityaccess/java_test_list..xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
   <si>
     <t>AccessApplicationServiceTest.java</t>
   </si>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1348,6 +1348,9 @@
       <c r="B67" t="s">
         <v>75</v>
       </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
@@ -1356,6 +1359,9 @@
       <c r="B68" t="s">
         <v>76</v>
       </c>
+      <c r="D68" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
@@ -1364,6 +1370,9 @@
       <c r="B69" t="s">
         <v>77</v>
       </c>
+      <c r="D69" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
@@ -1372,6 +1381,9 @@
       <c r="B70" t="s">
         <v>78</v>
       </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
@@ -1447,6 +1459,9 @@
       <c r="B79" t="s">
         <v>67</v>
       </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
@@ -1455,6 +1470,9 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
@@ -1463,6 +1481,9 @@
       <c r="B81" t="s">
         <v>69</v>
       </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
@@ -1471,6 +1492,9 @@
       <c r="B82" t="s">
         <v>90</v>
       </c>
+      <c r="D82" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
@@ -1703,11 +1727,11 @@
     <row r="107" spans="1:5">
       <c r="D107">
         <f>COUNTIF(D2:D106, "Y")</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E107">
         <f>D107/ROWS(B2:B106)</f>
-        <v>0.25714285714285712</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/iddd_identityaccess/java_test_list..xlsx
+++ b/iddd_identityaccess/java_test_list..xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
   <si>
     <t>AccessApplicationServiceTest.java</t>
   </si>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -786,6 +786,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -794,6 +797,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -802,6 +808,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -810,6 +819,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -818,6 +830,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -826,6 +841,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -834,6 +852,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -842,6 +863,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -850,6 +874,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -858,6 +885,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -866,6 +896,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -874,6 +907,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -882,6 +918,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -890,6 +929,9 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -898,64 +940,88 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -963,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -971,7 +1037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -979,52 +1045,70 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1034,6 +1118,9 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -1042,6 +1129,9 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
@@ -1050,6 +1140,9 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
@@ -1058,6 +1151,9 @@
       <c r="B36" t="s">
         <v>40</v>
       </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
@@ -1066,6 +1162,9 @@
       <c r="B37" t="s">
         <v>41</v>
       </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
@@ -1074,6 +1173,9 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
@@ -1082,6 +1184,9 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
@@ -1244,6 +1349,9 @@
       <c r="B54" t="s">
         <v>62</v>
       </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -1252,6 +1360,9 @@
       <c r="B55" t="s">
         <v>63</v>
       </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
@@ -1260,6 +1371,9 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
@@ -1268,6 +1382,9 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
+      <c r="D57" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
@@ -1276,6 +1393,9 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
@@ -1284,6 +1404,9 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
@@ -1292,6 +1415,9 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
+      <c r="D60" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
@@ -1300,6 +1426,9 @@
       <c r="B61" t="s">
         <v>62</v>
       </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
@@ -1308,6 +1437,9 @@
       <c r="B62" t="s">
         <v>63</v>
       </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
@@ -1316,6 +1448,9 @@
       <c r="B63" t="s">
         <v>70</v>
       </c>
+      <c r="D63" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
@@ -1324,6 +1459,9 @@
       <c r="B64" t="s">
         <v>71</v>
       </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
@@ -1332,6 +1470,9 @@
       <c r="B65" t="s">
         <v>72</v>
       </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -1340,6 +1481,9 @@
       <c r="B66" t="s">
         <v>73</v>
       </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
@@ -1403,6 +1547,9 @@
       <c r="B72" t="s">
         <v>81</v>
       </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
@@ -1411,6 +1558,9 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
@@ -1419,6 +1569,9 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
@@ -1427,6 +1580,9 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
@@ -1435,6 +1591,9 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
@@ -1443,6 +1602,9 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
+      <c r="D77" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
@@ -1451,6 +1613,9 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
@@ -1727,11 +1892,11 @@
     <row r="107" spans="1:5">
       <c r="D107">
         <f>COUNTIF(D2:D106, "Y")</f>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E107">
         <f>D107/ROWS(B2:B106)</f>
-        <v>0.33333333333333331</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/iddd_identityaccess/java_test_list..xlsx
+++ b/iddd_identityaccess/java_test_list..xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="java_test_list.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="123">
   <si>
     <t>AccessApplicationServiceTest.java</t>
   </si>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1028,6 +1028,9 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
@@ -1036,6 +1039,9 @@
       <c r="B25" t="s">
         <v>26</v>
       </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -1044,6 +1050,9 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
@@ -1800,6 +1809,9 @@
       <c r="B95" t="s">
         <v>105</v>
       </c>
+      <c r="D95" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
@@ -1840,6 +1852,9 @@
       <c r="B100" t="s">
         <v>112</v>
       </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -1848,6 +1863,9 @@
       <c r="B101" t="s">
         <v>114</v>
       </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
@@ -1856,6 +1874,9 @@
       <c r="B102" t="s">
         <v>115</v>
       </c>
+      <c r="D102" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -1864,6 +1885,9 @@
       <c r="B103" t="s">
         <v>116</v>
       </c>
+      <c r="D103" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
@@ -1872,6 +1896,9 @@
       <c r="B104" t="s">
         <v>117</v>
       </c>
+      <c r="D104" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -1880,6 +1907,9 @@
       <c r="B105" t="s">
         <v>2</v>
       </c>
+      <c r="D105" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
@@ -1888,15 +1918,18 @@
       <c r="B106" t="s">
         <v>118</v>
       </c>
+      <c r="D106" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="D107">
         <f>COUNTIF(D2:D106, "Y")</f>
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E107">
         <f>D107/ROWS(B2:B106)</f>
-        <v>0.8571428571428571</v>
+        <v>0.96190476190476193</v>
       </c>
     </row>
   </sheetData>
